--- a/ResultadoEleicoesDistritos/R. A. AÇORES_NORDESTE.xlsx
+++ b/ResultadoEleicoesDistritos/R. A. AÇORES_NORDESTE.xlsx
@@ -597,64 +597,64 @@
         <v>1443</v>
       </c>
       <c r="H2" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I2" t="n">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="J2" t="n">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="M2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S2" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="T2" t="n">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="U2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="V2" t="n">
-        <v>972</v>
+        <v>958</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>901</v>
+        <v>886</v>
       </c>
       <c r="Y2" t="n">
         <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
